--- a/DATA_goal/Junction_Flooding_3.xlsx
+++ b/DATA_goal/Junction_Flooding_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH12"/>
+  <dimension ref="A1:AH11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>41477.31944444445</v>
+        <v>41477.31943287037</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>6.54</v>
@@ -1663,7 +1663,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="Z11" s="4" t="n">
-        <v>11.02</v>
+        <v>11.01</v>
       </c>
       <c r="AA11" s="4" t="n">
         <v>4.29</v>
@@ -1681,117 +1681,13 @@
         <v>0.06</v>
       </c>
       <c r="AF11" s="4" t="n">
-        <v>21.08</v>
+        <v>21.07</v>
       </c>
       <c r="AG11" s="4" t="n">
         <v>2.77</v>
       </c>
       <c r="AH11" s="4" t="n">
         <v>6.07</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>41477.32638888889</v>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="H12" s="4" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="J12" s="4" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="K12" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="L12" s="4" t="n">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="M12" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="N12" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="O12" s="4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="P12" s="4" t="n">
-        <v>10.76</v>
-      </c>
-      <c r="Q12" s="4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="R12" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S12" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="T12" s="4" t="n">
-        <v>107.05</v>
-      </c>
-      <c r="U12" s="4" t="n">
-        <v>20.99</v>
-      </c>
-      <c r="V12" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="W12" s="4" t="n">
-        <v>14.15</v>
-      </c>
-      <c r="X12" s="4" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="Y12" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="Z12" s="4" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="AA12" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB12" s="4" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="AC12" s="4" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="AD12" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="AE12" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF12" s="4" t="n">
-        <v>25.96</v>
-      </c>
-      <c r="AG12" s="4" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="AH12" s="4" t="n">
-        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_3.xlsx
+++ b/DATA_goal/Junction_Flooding_3.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41477.25694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.28</v>
+        <v>0.43</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.27</v>
+        <v>0.53</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>3.66</v>
+        <v>0.37</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.25</v>
+        <v>0.72</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.63</v>
+        <v>0.36</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>6.54</v>
+        <v>0.65</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>60.45</v>
+        <v>6.05</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>12.19</v>
+        <v>1.22</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>7.36</v>
+        <v>0.74</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.6</v>
+        <v>0.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.54</v>
+        <v>0.55</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>8.52</v>
+        <v>0.85</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41477.26388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.33</v>
+        <v>0.83</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.96</v>
+        <v>2.2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.68</v>
+        <v>1.87</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.49</v>
+        <v>0.85</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>28.21</v>
+        <v>2.82</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.88</v>
+        <v>1.29</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>9.32</v>
+        <v>0.93</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.38</v>
+        <v>0.24</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.74</v>
+        <v>0.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.93</v>
+        <v>1.19</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.43</v>
+        <v>0.64</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>118.19</v>
+        <v>11.82</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>23.04</v>
+        <v>2.3</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.25</v>
+        <v>1.52</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.289999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.68</v>
+        <v>1.47</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.24</v>
+        <v>0.62</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.52</v>
+        <v>2.55</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.3</v>
+        <v>0.43</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41477.27083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>22.31</v>
+        <v>2.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>18.79</v>
+        <v>1.88</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>8.4</v>
+        <v>0.84</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>31.78</v>
+        <v>3.18</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.49</v>
+        <v>0.95</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.9</v>
+        <v>1.19</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>6.62</v>
+        <v>0.66</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>118.33</v>
+        <v>11.83</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>23.14</v>
+        <v>2.31</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>15.45</v>
+        <v>1.54</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>28.94</v>
+        <v>2.89</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41477.27777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.06</v>
+        <v>1.21</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.56</v>
+        <v>0.96</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.67</v>
+        <v>2.67</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.3</v>
+        <v>2.23</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>37.64</v>
+        <v>3.76</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.96</v>
+        <v>0.7</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.5</v>
+        <v>1.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.52</v>
+        <v>1.15</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.48</v>
+        <v>0.95</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.03</v>
+        <v>1.4</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.95</v>
+        <v>0.8</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>141.28</v>
+        <v>14.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>27.32</v>
+        <v>2.73</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.34</v>
+        <v>1.83</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.23</v>
+        <v>1.02</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.59</v>
+        <v>1.86</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.96</v>
+        <v>0.8</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.88</v>
+        <v>0.79</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.8</v>
+        <v>1.18</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>34.15</v>
+        <v>3.42</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.13</v>
+        <v>0.51</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.28</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41477.28472222222</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>8.44</v>
+        <v>0.84</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>23.63</v>
+        <v>2.36</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>19.74</v>
+        <v>1.97</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>8.73</v>
+        <v>0.87</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>34.45</v>
+        <v>3.45</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>6.15</v>
+        <v>0.61</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>9.26</v>
+        <v>0.93</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>10.15</v>
+        <v>1.01</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>10.05</v>
+        <v>1.01</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>8.41</v>
+        <v>0.84</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>7.06</v>
+        <v>0.71</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>124.16</v>
+        <v>12.42</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>24.21</v>
+        <v>2.42</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>9.01</v>
+        <v>0.9</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>16.84</v>
+        <v>1.68</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>6.59</v>
+        <v>0.66</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>31.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>4.54</v>
+        <v>0.45</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>9.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41477.29166666666</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.58</v>
+        <v>0.26</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O7" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>13.27</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>2.05</v>
-      </c>
       <c r="P7" s="4" t="n">
-        <v>3.36</v>
+        <v>0.34</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AE7" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>26.96</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="AF7" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.18</v>
+        <v>0.12</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>2.61</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41477.29861111111</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>9.84</v>
+        <v>0.98</v>
       </c>
       <c r="D8" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H8" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="I8" s="4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="J8" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L8" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M8" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N8" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O8" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S8" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T8" s="4" t="n">
+        <v>14.71</v>
+      </c>
+      <c r="U8" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V8" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="W8" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X8" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Y8" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z8" s="4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA8" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AB8" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AC8" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AD8" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AE8" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF8" s="4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG8" s="4" t="n">
         <v>0.53</v>
       </c>
-      <c r="E8" s="4" t="n">
-        <v>27.93</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>23.24</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>15.77</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>9.970000000000001</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>147.06</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>28.24</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>19.03</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>18.04</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>32.51</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>5.34</v>
-      </c>
       <c r="AH8" s="4" t="n">
-        <v>11.71</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41477.30555555555</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.1</v>
+        <v>1.61</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.36</v>
+        <v>1.24</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>35.28</v>
+        <v>3.53</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>29.3</v>
+        <v>2.93</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>12.87</v>
+        <v>1.29</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>48.89</v>
+        <v>4.89</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>19.84</v>
+        <v>1.98</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>8.970000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.58</v>
+        <v>1.46</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12.63</v>
+        <v>1.26</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.31</v>
+        <v>1.83</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>10.54</v>
+        <v>1.05</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.42</v>
+        <v>0.04</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>187.16</v>
+        <v>18.72</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>35.73</v>
+        <v>3.57</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>11.66</v>
+        <v>1.17</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>24.13</v>
+        <v>2.41</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>12.96</v>
+        <v>1.3</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>24.13</v>
+        <v>2.41</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>10.59</v>
+        <v>1.06</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.16</v>
+        <v>1.52</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>44.4</v>
+        <v>4.44</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>14.75</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41477.3125</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>8.74</v>
+        <v>0.87</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>24.86</v>
+        <v>2.49</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>20.67</v>
+        <v>2.07</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>36.98</v>
+        <v>3.7</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>6.36</v>
+        <v>0.64</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>9.52</v>
+        <v>0.95</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>10.35</v>
+        <v>1.03</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>10.57</v>
+        <v>1.06</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>2.83</v>
+        <v>0.28</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8.880000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>129.95</v>
+        <v>12.99</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>25.3</v>
+        <v>2.53</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>17.07</v>
+        <v>1.71</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.19</v>
+        <v>0.12</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>17.89</v>
+        <v>1.79</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>7.35</v>
+        <v>0.74</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>7.45</v>
+        <v>0.74</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>10.73</v>
+        <v>1.07</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>33.67</v>
+        <v>3.37</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>10.41</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_3.xlsx
+++ b/DATA_goal/Junction_Flooding_3.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41096.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.98</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.22</v>
+        <v>32.24</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.42</v>
+        <v>24.17</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.5</v>
+        <v>34.96</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.8</v>
+        <v>18.03</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.37</v>
+        <v>3.74</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.65</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17</v>
+        <v>170.03</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.23</v>
+        <v>32.3</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.08</v>
+        <v>10.76</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.81</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.03</v>
+        <v>10.3</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.68</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.31</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.14</v>
+        <v>31.42</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.34</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41096.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.1</v>
+        <v>11</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.42</v>
+        <v>24.2</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.37</v>
+        <v>33.71</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.34</v>
+        <v>13.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.66</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.13</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.78</v>
       </c>
       <c r="O3" s="4" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>7.65</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.86</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>12.43</v>
+        <v>124.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.42</v>
+        <v>24.23</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.8</v>
+        <v>7.98</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.83</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.53</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.11</v>
+        <v>31.08</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.28</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41096.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.64</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.54</v>
+        <v>5.37</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.02</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>2.5</v>
+        <v>24.97</v>
       </c>
       <c r="I4" s="4" t="n">
+        <v>9.31</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>6.02</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>8.42</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="J4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.42</v>
+        <v>84.23999999999999</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.89</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.1</v>
+        <v>11.04</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.75</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.8</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.3</v>
+        <v>22.97</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41096.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.01</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.99</v>
+        <v>49.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.34</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_3.xlsx
+++ b/DATA_goal/Junction_Flooding_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41096.09027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>14.84</v>
+        <v>14.835</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>9.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.7</v>
+        <v>3.698</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>32.24</v>
+        <v>32.243</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>24.17</v>
+        <v>24.166</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>11.51</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>34.96</v>
+        <v>34.958</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>18.03</v>
+        <v>18.033</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>7.29</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.73</v>
+        <v>10.735</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>12.53</v>
+        <v>12.533</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>13.25</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.74</v>
+        <v>3.739</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>11.65</v>
+        <v>11.655</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>16.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>10.28</v>
+        <v>10.282</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.096</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>1.74</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>170.03</v>
+        <v>170.025</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>32.3</v>
+        <v>32.298</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.76</v>
+        <v>10.758</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>20.81</v>
+        <v>20.812</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>10.71</v>
+        <v>10.713</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.84</v>
+        <v>2.837</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>18.29</v>
+        <v>18.288</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>9.5</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.640000000000001</v>
+        <v>8.641999999999999</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>10.3</v>
+        <v>10.303</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.68</v>
+        <v>12.679</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.31</v>
+        <v>3.311</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>31.42</v>
+        <v>31.418</v>
       </c>
       <c r="AG2" s="4" t="n">
         <v>5.68</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>13.45</v>
+        <v>13.449</v>
       </c>
     </row>
     <row r="3">
@@ -759,76 +759,76 @@
         <v>41096.09722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11</v>
+        <v>10.996</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>7.66</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.6</v>
+        <v>1.596</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>24.2</v>
+        <v>24.204</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18.64</v>
+        <v>18.641</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>8.539999999999999</v>
+        <v>8.536</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.71</v>
+        <v>33.709</v>
       </c>
       <c r="I3" s="4" t="n">
         <v>13.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.66</v>
+        <v>5.664</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.18</v>
+        <v>8.175000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>9.537000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.13</v>
+        <v>10.126</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.78</v>
+        <v>2.779</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.65</v>
+        <v>8.647</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.08</v>
+        <v>12.084</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.65</v>
+        <v>7.652</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.42</v>
+        <v>1.419</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.865</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>124.3</v>
+        <v>124.298</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>24.23</v>
+        <v>24.234</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>7.98</v>
+        <v>7.982</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>15.83</v>
+        <v>15.831</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.23</v>
+        <v>8.234999999999999</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.76</v>
+        <v>1.759</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>16.53</v>
@@ -837,25 +837,25 @@
         <v>7.05</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.43</v>
+        <v>6.427</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.59</v>
+        <v>7.588</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.74</v>
+        <v>9.736000000000001</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.246</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>31.08</v>
+        <v>31.084</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.28</v>
+        <v>4.282</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.98</v>
+        <v>9.978999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41096.10416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.64</v>
+        <v>7.637</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.37</v>
+        <v>5.368</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.02</v>
+        <v>1.015</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.87</v>
+        <v>16.873</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13</v>
+        <v>12.997</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.92</v>
+        <v>5.921</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.97</v>
+        <v>24.971</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.96</v>
+        <v>3.964</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.68</v>
+        <v>5.676</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.67</v>
+        <v>6.667</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>7.1</v>
+        <v>7.104</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.93</v>
+        <v>1.934</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.42</v>
+        <v>8.419</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.35</v>
+        <v>5.347</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.93</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.23999999999999</v>
+        <v>84.238</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.89</v>
+        <v>16.894</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.04</v>
+        <v>11.044</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.75</v>
+        <v>5.754</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.21</v>
+        <v>1.208</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>11.92</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.9</v>
+        <v>4.904</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.48</v>
+        <v>4.484</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.28</v>
+        <v>5.276</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.8</v>
+        <v>6.802</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.97</v>
+        <v>22.974</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.97</v>
+        <v>2.975</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.94</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>4.34</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>41096.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_3.xlsx
+++ b/DATA_goal/Junction_Flooding_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>41096.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.76</v>
+        <v>4.758</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.32</v>
+        <v>3.316</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.709</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.58</v>
+        <v>10.578</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.01</v>
+        <v>8.013999999999999</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.67</v>
+        <v>3.673</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.55</v>
+        <v>16.552</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.817</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.46</v>
+        <v>2.463</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.46</v>
+        <v>3.461</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.17</v>
+        <v>4.172</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.468</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.21</v>
+        <v>1.211</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.25</v>
+        <v>5.251</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.4</v>
+        <v>3.401</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.91</v>
+        <v>49.906</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.61</v>
+        <v>10.612</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.9</v>
+        <v>6.896</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>3.58</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.78</v>
+        <v>7.783</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.07</v>
+        <v>3.065</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.83</v>
+        <v>2.833</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.33</v>
+        <v>3.326</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.23</v>
+        <v>4.226</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.553</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.29</v>
+        <v>15.285</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.34</v>
+        <v>4.339</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>41096.11805555555</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.17</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>12.82</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_3.xlsx
+++ b/DATA_goal/Junction_Flooding_3.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>41096.11111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.758</v>
+        <v>4.76</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.316</v>
+        <v>3.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>10.578</v>
+        <v>10.58</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>8.013999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.673</v>
+        <v>3.67</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16.552</v>
+        <v>16.55</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.817</v>
+        <v>5.82</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.463</v>
+        <v>2.46</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.461</v>
+        <v>3.46</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.172</v>
+        <v>4.17</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>4.468</v>
+        <v>4.47</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.211</v>
+        <v>1.21</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>3.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>5.251</v>
+        <v>5.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.401</v>
+        <v>3.4</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>49.906</v>
+        <v>49.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>10.612</v>
+        <v>10.61</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>3.47</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.896</v>
+        <v>6.9</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>3.58</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>7.783</v>
+        <v>7.78</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.065</v>
+        <v>3.07</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.833</v>
+        <v>2.83</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.326</v>
+        <v>3.33</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.226</v>
+        <v>4.23</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>15.285</v>
+        <v>15.29</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.83</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.339</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>41096.11805555555</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.17</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.62</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>12.82</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.9</v>
+        <v>4.34</v>
       </c>
     </row>
   </sheetData>
